--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/a-Mc4r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/a-Mc4r.xlsx
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Mc4r</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>Mc4r</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -525,25 +525,25 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.02391833333333333</v>
+        <v>0.344207</v>
       </c>
       <c r="H2">
-        <v>0.071755</v>
+        <v>1.032621</v>
       </c>
       <c r="I2">
-        <v>0.06497334241236681</v>
+        <v>0.6985282229833164</v>
       </c>
       <c r="J2">
-        <v>0.06497334241236681</v>
+        <v>0.6985282229833165</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.03919966666666667</v>
+        <v>0.006923666666666667</v>
       </c>
       <c r="N2">
-        <v>0.117599</v>
+        <v>0.020771</v>
       </c>
       <c r="O2">
-        <v>0.172457585485283</v>
+        <v>0.01563438526027703</v>
       </c>
       <c r="P2">
-        <v>0.172457585485283</v>
+        <v>0.01563438526027703</v>
       </c>
       <c r="Q2">
-        <v>0.0009375906938888889</v>
+        <v>0.002383174532333333</v>
       </c>
       <c r="R2">
-        <v>0.008438316244999999</v>
+        <v>0.021448570791</v>
       </c>
       <c r="S2">
-        <v>0.01120514575334531</v>
+        <v>0.01092105935329787</v>
       </c>
       <c r="T2">
-        <v>0.01120514575334531</v>
+        <v>0.01092105935329787</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,55 +587,55 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G3">
+        <v>0.344207</v>
+      </c>
+      <c r="H3">
+        <v>1.032621</v>
+      </c>
+      <c r="I3">
+        <v>0.6985282229833164</v>
+      </c>
+      <c r="J3">
+        <v>0.6985282229833165</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
         <v>1</v>
       </c>
-      <c r="F3">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G3">
-        <v>0.02391833333333333</v>
-      </c>
-      <c r="H3">
-        <v>0.071755</v>
-      </c>
-      <c r="I3">
-        <v>0.06497334241236681</v>
-      </c>
-      <c r="J3">
-        <v>0.06497334241236681</v>
-      </c>
-      <c r="K3">
-        <v>2</v>
-      </c>
-      <c r="L3">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M3">
-        <v>0.1881006666666667</v>
+        <v>0.435925</v>
       </c>
       <c r="N3">
-        <v>0.5643020000000001</v>
+        <v>1.307775</v>
       </c>
       <c r="O3">
-        <v>0.827542414514717</v>
+        <v>0.9843656147397229</v>
       </c>
       <c r="P3">
-        <v>0.827542414514717</v>
+        <v>0.9843656147397229</v>
       </c>
       <c r="Q3">
-        <v>0.004499054445555557</v>
+        <v>0.150048436475</v>
       </c>
       <c r="R3">
-        <v>0.04049149001000001</v>
+        <v>1.350435928275</v>
       </c>
       <c r="S3">
-        <v>0.05376819665902149</v>
+        <v>0.6876071636300185</v>
       </c>
       <c r="T3">
-        <v>0.05376819665902149</v>
+        <v>0.6876071636300186</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,25 +649,25 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.3442069999999999</v>
+        <v>0.1485533333333333</v>
       </c>
       <c r="H4">
-        <v>1.032621</v>
+        <v>0.44566</v>
       </c>
       <c r="I4">
-        <v>0.9350266575876333</v>
+        <v>0.3014717770166836</v>
       </c>
       <c r="J4">
-        <v>0.9350266575876331</v>
+        <v>0.3014717770166836</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.03919966666666667</v>
+        <v>0.006923666666666667</v>
       </c>
       <c r="N4">
-        <v>0.117599</v>
+        <v>0.020771</v>
       </c>
       <c r="O4">
-        <v>0.172457585485283</v>
+        <v>0.01563438526027703</v>
       </c>
       <c r="P4">
-        <v>0.172457585485283</v>
+        <v>0.01563438526027703</v>
       </c>
       <c r="Q4">
-        <v>0.01349279966433333</v>
+        <v>0.001028533762222222</v>
       </c>
       <c r="R4">
-        <v>0.121435196979</v>
+        <v>0.009256803860000001</v>
       </c>
       <c r="S4">
-        <v>0.1612524397319377</v>
+        <v>0.004713325906979161</v>
       </c>
       <c r="T4">
-        <v>0.1612524397319377</v>
+        <v>0.00471332590697916</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,55 +711,55 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.3442069999999999</v>
+        <v>0.1485533333333333</v>
       </c>
       <c r="H5">
-        <v>1.032621</v>
+        <v>0.44566</v>
       </c>
       <c r="I5">
-        <v>0.9350266575876333</v>
+        <v>0.3014717770166836</v>
       </c>
       <c r="J5">
-        <v>0.9350266575876331</v>
+        <v>0.3014717770166836</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1881006666666667</v>
+        <v>0.435925</v>
       </c>
       <c r="N5">
-        <v>0.5643020000000001</v>
+        <v>1.307775</v>
       </c>
       <c r="O5">
-        <v>0.827542414514717</v>
+        <v>0.9843656147397229</v>
       </c>
       <c r="P5">
-        <v>0.827542414514717</v>
+        <v>0.9843656147397229</v>
       </c>
       <c r="Q5">
-        <v>0.06474556617133333</v>
+        <v>0.06475811183333333</v>
       </c>
       <c r="R5">
-        <v>0.5827100955419999</v>
+        <v>0.5828230065</v>
       </c>
       <c r="S5">
-        <v>0.7737742178556956</v>
+        <v>0.2967584511097044</v>
       </c>
       <c r="T5">
-        <v>0.7737742178556954</v>
+        <v>0.2967584511097044</v>
       </c>
     </row>
   </sheetData>
